--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1,27 +1,61 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF026065-DE5E-4768-BFAD-2F7855879C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="90" windowWidth="17220" windowHeight="8205"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BTC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>BTC BAU Transmission Capacity</t>
   </si>
@@ -74,9 +108,6 @@
     <t>pixels</t>
   </si>
   <si>
-    <t>BAU Transmission Capacity (MW*miles)</t>
-  </si>
-  <si>
     <t>MW*miles</t>
   </si>
   <si>
@@ -90,12 +121,36 @@
   </si>
   <si>
     <t>and interpolate.</t>
+  </si>
+  <si>
+    <t>US Energy Information Administration</t>
+  </si>
+  <si>
+    <t>EIA study examines the role of high-voltage power lines in integrating renewables</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/todayinenergy/detail.php?id=36393</t>
+  </si>
+  <si>
+    <t>BAU Transmission Capacity (circuit miles)</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Current Value</t>
+  </si>
+  <si>
+    <t>Indexed to 2018</t>
+  </si>
+  <si>
+    <t>2018 value from EIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
@@ -124,12 +179,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,6 +215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -176,20 +238,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>302260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>297382</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>137474</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192607</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>67624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -208,8 +276,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4046220" y="1638300"/>
-          <a:ext cx="2331922" cy="3619814"/>
+          <a:off x="4798060" y="102235"/>
+          <a:ext cx="2328747" cy="3584889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -297,6 +365,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -332,6 +417,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,49 +609,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="21.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{FF197175-E7A8-4C69-9B18-B36AE5DAEF78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -557,53 +694,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AO30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.453125" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -612,10 +751,10 @@
         <v>150000000</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -624,10 +763,10 @@
         <v>200000000</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -636,15 +775,15 @@
         <v>175000000</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -655,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -666,16 +805,629 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <f>B16/B15*50*10^6</f>
         <v>5319148.9361702129</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B12</f>
+        <v>175000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2050</v>
+      </c>
+      <c r="B21" s="4">
+        <f>B12+B17</f>
+        <v>180319148.93617022</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2010</v>
+      </c>
+      <c r="B23">
+        <v>2011</v>
+      </c>
+      <c r="C23">
+        <v>2012</v>
+      </c>
+      <c r="D23">
+        <v>2013</v>
+      </c>
+      <c r="E23">
+        <v>2014</v>
+      </c>
+      <c r="F23">
+        <v>2015</v>
+      </c>
+      <c r="G23">
+        <v>2016</v>
+      </c>
+      <c r="H23">
+        <v>2017</v>
+      </c>
+      <c r="I23">
+        <v>2018</v>
+      </c>
+      <c r="J23">
+        <v>2019</v>
+      </c>
+      <c r="K23">
+        <v>2020</v>
+      </c>
+      <c r="L23">
+        <v>2021</v>
+      </c>
+      <c r="M23">
+        <v>2022</v>
+      </c>
+      <c r="N23">
+        <v>2023</v>
+      </c>
+      <c r="O23">
+        <v>2024</v>
+      </c>
+      <c r="P23">
+        <v>2025</v>
+      </c>
+      <c r="Q23">
+        <v>2026</v>
+      </c>
+      <c r="R23">
+        <v>2027</v>
+      </c>
+      <c r="S23">
+        <v>2028</v>
+      </c>
+      <c r="T23">
+        <v>2029</v>
+      </c>
+      <c r="U23">
+        <v>2030</v>
+      </c>
+      <c r="V23">
+        <v>2031</v>
+      </c>
+      <c r="W23">
+        <v>2032</v>
+      </c>
+      <c r="X23">
+        <v>2033</v>
+      </c>
+      <c r="Y23">
+        <v>2034</v>
+      </c>
+      <c r="Z23">
+        <v>2035</v>
+      </c>
+      <c r="AA23">
+        <v>2036</v>
+      </c>
+      <c r="AB23">
+        <v>2037</v>
+      </c>
+      <c r="AC23">
+        <v>2038</v>
+      </c>
+      <c r="AD23">
+        <v>2039</v>
+      </c>
+      <c r="AE23">
+        <v>2040</v>
+      </c>
+      <c r="AF23">
+        <v>2041</v>
+      </c>
+      <c r="AG23">
+        <v>2042</v>
+      </c>
+      <c r="AH23">
+        <v>2043</v>
+      </c>
+      <c r="AI23">
+        <v>2044</v>
+      </c>
+      <c r="AJ23">
+        <v>2045</v>
+      </c>
+      <c r="AK23">
+        <v>2046</v>
+      </c>
+      <c r="AL23">
+        <v>2047</v>
+      </c>
+      <c r="AM23">
+        <v>2048</v>
+      </c>
+      <c r="AN23">
+        <v>2049</v>
+      </c>
+      <c r="AO23">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" cm="1">
+        <f t="array" ref="A24">TREND($B$20:$B$21,$A$20:$A$21,A23)</f>
+        <v>175000000</v>
+      </c>
+      <c r="B24" s="4" cm="1">
+        <f t="array" ref="B24">TREND($B$20:$B$21,$A$20:$A$21,B23)</f>
+        <v>175132978.72340426</v>
+      </c>
+      <c r="C24" s="4" cm="1">
+        <f t="array" ref="C24">TREND($B$20:$B$21,$A$20:$A$21,C23)</f>
+        <v>175265957.44680852</v>
+      </c>
+      <c r="D24" s="4" cm="1">
+        <f t="array" ref="D24">TREND($B$20:$B$21,$A$20:$A$21,D23)</f>
+        <v>175398936.17021278</v>
+      </c>
+      <c r="E24" s="4" cm="1">
+        <f t="array" ref="E24">TREND($B$20:$B$21,$A$20:$A$21,E23)</f>
+        <v>175531914.893617</v>
+      </c>
+      <c r="F24" s="4" cm="1">
+        <f t="array" ref="F24">TREND($B$20:$B$21,$A$20:$A$21,F23)</f>
+        <v>175664893.61702126</v>
+      </c>
+      <c r="G24" s="4" cm="1">
+        <f t="array" ref="G24">TREND($B$20:$B$21,$A$20:$A$21,G23)</f>
+        <v>175797872.34042552</v>
+      </c>
+      <c r="H24" s="4" cm="1">
+        <f t="array" ref="H24">TREND($B$20:$B$21,$A$20:$A$21,H23)</f>
+        <v>175930851.06382978</v>
+      </c>
+      <c r="I24" s="4" cm="1">
+        <f t="array" ref="I24">TREND($B$20:$B$21,$A$20:$A$21,I23)</f>
+        <v>176063829.78723404</v>
+      </c>
+      <c r="J24" s="4" cm="1">
+        <f t="array" ref="J24">TREND($B$20:$B$21,$A$20:$A$21,J23)</f>
+        <v>176196808.5106383</v>
+      </c>
+      <c r="K24" s="4" cm="1">
+        <f t="array" ref="K24">TREND($B$20:$B$21,$A$20:$A$21,K23)</f>
+        <v>176329787.23404253</v>
+      </c>
+      <c r="L24" s="4" cm="1">
+        <f t="array" ref="L24">TREND($B$20:$B$21,$A$20:$A$21,L23)</f>
+        <v>176462765.95744681</v>
+      </c>
+      <c r="M24" s="4" cm="1">
+        <f t="array" ref="M24">TREND($B$20:$B$21,$A$20:$A$21,M23)</f>
+        <v>176595744.68085104</v>
+      </c>
+      <c r="N24" s="4" cm="1">
+        <f t="array" ref="N24">TREND($B$20:$B$21,$A$20:$A$21,N23)</f>
+        <v>176728723.40425533</v>
+      </c>
+      <c r="O24" s="4" cm="1">
+        <f t="array" ref="O24">TREND($B$20:$B$21,$A$20:$A$21,O23)</f>
+        <v>176861702.12765956</v>
+      </c>
+      <c r="P24" s="4" cm="1">
+        <f t="array" ref="P24">TREND($B$20:$B$21,$A$20:$A$21,P23)</f>
+        <v>176994680.85106385</v>
+      </c>
+      <c r="Q24" s="4" cm="1">
+        <f t="array" ref="Q24">TREND($B$20:$B$21,$A$20:$A$21,Q23)</f>
+        <v>177127659.57446808</v>
+      </c>
+      <c r="R24" s="4" cm="1">
+        <f t="array" ref="R24">TREND($B$20:$B$21,$A$20:$A$21,R23)</f>
+        <v>177260638.29787236</v>
+      </c>
+      <c r="S24" s="4" cm="1">
+        <f t="array" ref="S24">TREND($B$20:$B$21,$A$20:$A$21,S23)</f>
+        <v>177393617.02127659</v>
+      </c>
+      <c r="T24" s="4" cm="1">
+        <f t="array" ref="T24">TREND($B$20:$B$21,$A$20:$A$21,T23)</f>
+        <v>177526595.74468082</v>
+      </c>
+      <c r="U24" s="4" cm="1">
+        <f t="array" ref="U24">TREND($B$20:$B$21,$A$20:$A$21,U23)</f>
+        <v>177659574.46808511</v>
+      </c>
+      <c r="V24" s="4" cm="1">
+        <f t="array" ref="V24">TREND($B$20:$B$21,$A$20:$A$21,V23)</f>
+        <v>177792553.19148934</v>
+      </c>
+      <c r="W24" s="4" cm="1">
+        <f t="array" ref="W24">TREND($B$20:$B$21,$A$20:$A$21,W23)</f>
+        <v>177925531.91489363</v>
+      </c>
+      <c r="X24" s="4" cm="1">
+        <f t="array" ref="X24">TREND($B$20:$B$21,$A$20:$A$21,X23)</f>
+        <v>178058510.63829786</v>
+      </c>
+      <c r="Y24" s="4" cm="1">
+        <f t="array" ref="Y24">TREND($B$20:$B$21,$A$20:$A$21,Y23)</f>
+        <v>178191489.36170214</v>
+      </c>
+      <c r="Z24" s="4" cm="1">
+        <f t="array" ref="Z24">TREND($B$20:$B$21,$A$20:$A$21,Z23)</f>
+        <v>178324468.08510637</v>
+      </c>
+      <c r="AA24" s="4" cm="1">
+        <f t="array" ref="AA24">TREND($B$20:$B$21,$A$20:$A$21,AA23)</f>
+        <v>178457446.80851066</v>
+      </c>
+      <c r="AB24" s="4" cm="1">
+        <f t="array" ref="AB24">TREND($B$20:$B$21,$A$20:$A$21,AB23)</f>
+        <v>178590425.53191489</v>
+      </c>
+      <c r="AC24" s="4" cm="1">
+        <f t="array" ref="AC24">TREND($B$20:$B$21,$A$20:$A$21,AC23)</f>
+        <v>178723404.25531918</v>
+      </c>
+      <c r="AD24" s="4" cm="1">
+        <f t="array" ref="AD24">TREND($B$20:$B$21,$A$20:$A$21,AD23)</f>
+        <v>178856382.97872341</v>
+      </c>
+      <c r="AE24" s="4" cm="1">
+        <f t="array" ref="AE24">TREND($B$20:$B$21,$A$20:$A$21,AE23)</f>
+        <v>178989361.70212764</v>
+      </c>
+      <c r="AF24" s="4" cm="1">
+        <f t="array" ref="AF24">TREND($B$20:$B$21,$A$20:$A$21,AF23)</f>
+        <v>179122340.42553192</v>
+      </c>
+      <c r="AG24" s="4" cm="1">
+        <f t="array" ref="AG24">TREND($B$20:$B$21,$A$20:$A$21,AG23)</f>
+        <v>179255319.14893615</v>
+      </c>
+      <c r="AH24" s="4" cm="1">
+        <f t="array" ref="AH24">TREND($B$20:$B$21,$A$20:$A$21,AH23)</f>
+        <v>179388297.87234044</v>
+      </c>
+      <c r="AI24" s="4" cm="1">
+        <f t="array" ref="AI24">TREND($B$20:$B$21,$A$20:$A$21,AI23)</f>
+        <v>179521276.59574467</v>
+      </c>
+      <c r="AJ24" s="4" cm="1">
+        <f t="array" ref="AJ24">TREND($B$20:$B$21,$A$20:$A$21,AJ23)</f>
+        <v>179654255.31914896</v>
+      </c>
+      <c r="AK24" s="4" cm="1">
+        <f t="array" ref="AK24">TREND($B$20:$B$21,$A$20:$A$21,AK23)</f>
+        <v>179787234.04255319</v>
+      </c>
+      <c r="AL24" s="4" cm="1">
+        <f t="array" ref="AL24">TREND($B$20:$B$21,$A$20:$A$21,AL23)</f>
+        <v>179920212.76595747</v>
+      </c>
+      <c r="AM24" s="4" cm="1">
+        <f t="array" ref="AM24">TREND($B$20:$B$21,$A$20:$A$21,AM23)</f>
+        <v>180053191.4893617</v>
+      </c>
+      <c r="AN24" s="4" cm="1">
+        <f t="array" ref="AN24">TREND($B$20:$B$21,$A$20:$A$21,AN23)</f>
+        <v>180186170.21276593</v>
+      </c>
+      <c r="AO24" s="4" cm="1">
+        <f t="array" ref="AO24">TREND($B$20:$B$21,$A$20:$A$21,AO23)</f>
+        <v>180319148.93617022</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2010</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27">
+        <v>2012</v>
+      </c>
+      <c r="D27">
+        <v>2013</v>
+      </c>
+      <c r="E27">
+        <v>2014</v>
+      </c>
+      <c r="F27">
+        <v>2015</v>
+      </c>
+      <c r="G27">
+        <v>2016</v>
+      </c>
+      <c r="H27">
+        <v>2017</v>
+      </c>
+      <c r="I27">
+        <v>2018</v>
+      </c>
+      <c r="J27">
+        <v>2019</v>
+      </c>
+      <c r="K27">
+        <v>2020</v>
+      </c>
+      <c r="L27">
+        <v>2021</v>
+      </c>
+      <c r="M27">
+        <v>2022</v>
+      </c>
+      <c r="N27">
+        <v>2023</v>
+      </c>
+      <c r="O27">
+        <v>2024</v>
+      </c>
+      <c r="P27">
+        <v>2025</v>
+      </c>
+      <c r="Q27">
+        <v>2026</v>
+      </c>
+      <c r="R27">
+        <v>2027</v>
+      </c>
+      <c r="S27">
+        <v>2028</v>
+      </c>
+      <c r="T27">
+        <v>2029</v>
+      </c>
+      <c r="U27">
+        <v>2030</v>
+      </c>
+      <c r="V27">
+        <v>2031</v>
+      </c>
+      <c r="W27">
+        <v>2032</v>
+      </c>
+      <c r="X27">
+        <v>2033</v>
+      </c>
+      <c r="Y27">
+        <v>2034</v>
+      </c>
+      <c r="Z27">
+        <v>2035</v>
+      </c>
+      <c r="AA27">
+        <v>2036</v>
+      </c>
+      <c r="AB27">
+        <v>2037</v>
+      </c>
+      <c r="AC27">
+        <v>2038</v>
+      </c>
+      <c r="AD27">
+        <v>2039</v>
+      </c>
+      <c r="AE27">
+        <v>2040</v>
+      </c>
+      <c r="AF27">
+        <v>2041</v>
+      </c>
+      <c r="AG27">
+        <v>2042</v>
+      </c>
+      <c r="AH27">
+        <v>2043</v>
+      </c>
+      <c r="AI27">
+        <v>2044</v>
+      </c>
+      <c r="AJ27">
+        <v>2045</v>
+      </c>
+      <c r="AK27">
+        <v>2046</v>
+      </c>
+      <c r="AL27">
+        <v>2047</v>
+      </c>
+      <c r="AM27">
+        <v>2048</v>
+      </c>
+      <c r="AN27">
+        <v>2049</v>
+      </c>
+      <c r="AO27">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <f>A24/$I$24</f>
+        <v>0.9939577039274925</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" ref="B28:AO28" si="0">B24/$I$24</f>
+        <v>0.99471299093655596</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99546827794561943</v>
+      </c>
+      <c r="D28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99622356495468289</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99697885196374614</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.9977341389728096</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99848942598187307</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99924471299093653</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0007552870090635</v>
+      </c>
+      <c r="K28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0015105740181267</v>
+      </c>
+      <c r="L28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0022658610271904</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0030211480362536</v>
+      </c>
+      <c r="N28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0037764350453173</v>
+      </c>
+      <c r="O28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0045317220543806</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0052870090634443</v>
+      </c>
+      <c r="Q28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0060422960725075</v>
+      </c>
+      <c r="R28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0067975830815712</v>
+      </c>
+      <c r="S28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0075528700906344</v>
+      </c>
+      <c r="T28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0083081570996977</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0090634441087614</v>
+      </c>
+      <c r="V28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0098187311178246</v>
+      </c>
+      <c r="W28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0105740181268883</v>
+      </c>
+      <c r="X28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0113293051359515</v>
+      </c>
+      <c r="Y28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0120845921450152</v>
+      </c>
+      <c r="Z28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0128398791540785</v>
+      </c>
+      <c r="AA28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0135951661631422</v>
+      </c>
+      <c r="AB28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0143504531722054</v>
+      </c>
+      <c r="AC28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0151057401812691</v>
+      </c>
+      <c r="AD28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0158610271903323</v>
+      </c>
+      <c r="AE28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0166163141993956</v>
+      </c>
+      <c r="AF28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0173716012084593</v>
+      </c>
+      <c r="AG28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0181268882175225</v>
+      </c>
+      <c r="AH28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0188821752265862</v>
+      </c>
+      <c r="AI28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0196374622356494</v>
+      </c>
+      <c r="AJ28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0203927492447131</v>
+      </c>
+      <c r="AK28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0211480362537764</v>
+      </c>
+      <c r="AL28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0219033232628401</v>
+      </c>
+      <c r="AM28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0226586102719033</v>
+      </c>
+      <c r="AN28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0234138972809665</v>
+      </c>
+      <c r="AO28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0241691842900302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
@@ -685,314 +1437,258 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="42" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="34" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B1">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="C1">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D1">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="E1">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="F1">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="G1">
-        <v>2015</v>
+        <v>2023</v>
       </c>
       <c r="H1">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="I1">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="J1">
-        <v>2018</v>
+        <v>2026</v>
       </c>
       <c r="K1">
-        <v>2019</v>
+        <v>2027</v>
       </c>
       <c r="L1">
-        <v>2020</v>
+        <v>2028</v>
       </c>
       <c r="M1">
-        <v>2021</v>
+        <v>2029</v>
       </c>
       <c r="N1">
-        <v>2022</v>
+        <v>2030</v>
       </c>
       <c r="O1">
-        <v>2023</v>
+        <v>2031</v>
       </c>
       <c r="P1">
-        <v>2024</v>
+        <v>2032</v>
       </c>
       <c r="Q1">
-        <v>2025</v>
+        <v>2033</v>
       </c>
       <c r="R1">
-        <v>2026</v>
+        <v>2034</v>
       </c>
       <c r="S1">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="T1">
-        <v>2028</v>
+        <v>2036</v>
       </c>
       <c r="U1">
-        <v>2029</v>
+        <v>2037</v>
       </c>
       <c r="V1">
-        <v>2030</v>
+        <v>2038</v>
       </c>
       <c r="W1">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="X1">
-        <v>2032</v>
+        <v>2040</v>
       </c>
       <c r="Y1">
-        <v>2033</v>
+        <v>2041</v>
       </c>
       <c r="Z1">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="AA1">
-        <v>2035</v>
+        <v>2043</v>
       </c>
       <c r="AB1">
-        <v>2036</v>
+        <v>2044</v>
       </c>
       <c r="AC1">
-        <v>2037</v>
+        <v>2045</v>
       </c>
       <c r="AD1">
-        <v>2038</v>
+        <v>2046</v>
       </c>
       <c r="AE1">
-        <v>2039</v>
+        <v>2047</v>
       </c>
       <c r="AF1">
-        <v>2040</v>
+        <v>2048</v>
       </c>
       <c r="AG1">
-        <v>2041</v>
+        <v>2049</v>
       </c>
       <c r="AH1">
-        <v>2042</v>
-      </c>
-      <c r="AI1">
-        <v>2043</v>
-      </c>
-      <c r="AJ1">
-        <v>2044</v>
-      </c>
-      <c r="AK1">
-        <v>2045</v>
-      </c>
-      <c r="AL1">
-        <v>2046</v>
-      </c>
-      <c r="AM1">
-        <v>2047</v>
-      </c>
-      <c r="AN1">
-        <v>2048</v>
-      </c>
-      <c r="AO1">
-        <v>2049</v>
-      </c>
-      <c r="AP1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="5">
-        <f>Data!B12</f>
-        <v>175000000</v>
+        <f>Data!I28*Data!$B$30</f>
+        <v>700000</v>
       </c>
       <c r="C2" s="5">
-        <f>B2+Data!$B$17/(2050-2010)</f>
-        <v>175132978.72340426</v>
+        <f>Data!J28*Data!$B$30</f>
+        <v>700528.70090634446</v>
       </c>
       <c r="D2" s="5">
-        <f>C2+Data!$B$17/(2050-2010)</f>
-        <v>175265957.44680852</v>
+        <f>Data!K28*Data!$B$30</f>
+        <v>701057.40181268868</v>
       </c>
       <c r="E2" s="5">
-        <f>D2+Data!$B$17/(2050-2010)</f>
-        <v>175398936.17021278</v>
+        <f>Data!L28*Data!$B$30</f>
+        <v>701586.10271903325</v>
       </c>
       <c r="F2" s="5">
-        <f>E2+Data!$B$17/(2050-2010)</f>
-        <v>175531914.89361703</v>
+        <f>Data!M28*Data!$B$30</f>
+        <v>702114.80362537759</v>
       </c>
       <c r="G2" s="5">
-        <f>F2+Data!$B$17/(2050-2010)</f>
-        <v>175664893.61702129</v>
+        <f>Data!N28*Data!$B$30</f>
+        <v>702643.50453172217</v>
       </c>
       <c r="H2" s="5">
-        <f>G2+Data!$B$17/(2050-2010)</f>
-        <v>175797872.34042555</v>
+        <f>Data!O28*Data!$B$30</f>
+        <v>703172.20543806639</v>
       </c>
       <c r="I2" s="5">
-        <f>H2+Data!$B$17/(2050-2010)</f>
-        <v>175930851.06382981</v>
+        <f>Data!P28*Data!$B$30</f>
+        <v>703700.90634441096</v>
       </c>
       <c r="J2" s="5">
-        <f>I2+Data!$B$17/(2050-2010)</f>
-        <v>176063829.78723407</v>
+        <f>Data!Q28*Data!$B$30</f>
+        <v>704229.6072507553</v>
       </c>
       <c r="K2" s="5">
-        <f>J2+Data!$B$17/(2050-2010)</f>
-        <v>176196808.51063833</v>
+        <f>Data!R28*Data!$B$30</f>
+        <v>704758.30815709988</v>
       </c>
       <c r="L2" s="5">
-        <f>K2+Data!$B$17/(2050-2010)</f>
-        <v>176329787.23404258</v>
+        <f>Data!S28*Data!$B$30</f>
+        <v>705287.0090634441</v>
       </c>
       <c r="M2" s="5">
-        <f>L2+Data!$B$17/(2050-2010)</f>
-        <v>176462765.95744684</v>
+        <f>Data!T28*Data!$B$30</f>
+        <v>705815.70996978832</v>
       </c>
       <c r="N2" s="5">
-        <f>M2+Data!$B$17/(2050-2010)</f>
-        <v>176595744.6808511</v>
+        <f>Data!U28*Data!$B$30</f>
+        <v>706344.41087613301</v>
       </c>
       <c r="O2" s="5">
-        <f>N2+Data!$B$17/(2050-2010)</f>
-        <v>176728723.40425536</v>
+        <f>Data!V28*Data!$B$30</f>
+        <v>706873.11178247724</v>
       </c>
       <c r="P2" s="5">
-        <f>O2+Data!$B$17/(2050-2010)</f>
-        <v>176861702.12765962</v>
+        <f>Data!W28*Data!$B$30</f>
+        <v>707401.81268882181</v>
       </c>
       <c r="Q2" s="5">
-        <f>P2+Data!$B$17/(2050-2010)</f>
-        <v>176994680.85106388</v>
+        <f>Data!X28*Data!$B$30</f>
+        <v>707930.51359516603</v>
       </c>
       <c r="R2" s="5">
-        <f>Q2+Data!$B$17/(2050-2010)</f>
-        <v>177127659.57446814</v>
+        <f>Data!Y28*Data!$B$30</f>
+        <v>708459.21450151061</v>
       </c>
       <c r="S2" s="5">
-        <f>R2+Data!$B$17/(2050-2010)</f>
-        <v>177260638.29787239</v>
+        <f>Data!Z28*Data!$B$30</f>
+        <v>708987.91540785495</v>
       </c>
       <c r="T2" s="5">
-        <f>S2+Data!$B$17/(2050-2010)</f>
-        <v>177393617.02127665</v>
+        <f>Data!AA28*Data!$B$30</f>
+        <v>709516.61631419952</v>
       </c>
       <c r="U2" s="5">
-        <f>T2+Data!$B$17/(2050-2010)</f>
-        <v>177526595.74468091</v>
+        <f>Data!AB28*Data!$B$30</f>
+        <v>710045.31722054374</v>
       </c>
       <c r="V2" s="5">
-        <f>U2+Data!$B$17/(2050-2010)</f>
-        <v>177659574.46808517</v>
+        <f>Data!AC28*Data!$B$30</f>
+        <v>710574.01812688832</v>
       </c>
       <c r="W2" s="5">
-        <f>V2+Data!$B$17/(2050-2010)</f>
-        <v>177792553.19148943</v>
+        <f>Data!AD28*Data!$B$30</f>
+        <v>711102.71903323266</v>
       </c>
       <c r="X2" s="5">
-        <f>W2+Data!$B$17/(2050-2010)</f>
-        <v>177925531.91489369</v>
+        <f>Data!AE28*Data!$B$30</f>
+        <v>711631.41993957688</v>
       </c>
       <c r="Y2" s="5">
-        <f>X2+Data!$B$17/(2050-2010)</f>
-        <v>178058510.63829795</v>
+        <f>Data!AF28*Data!$B$30</f>
+        <v>712160.12084592145</v>
       </c>
       <c r="Z2" s="5">
-        <f>Y2+Data!$B$17/(2050-2010)</f>
-        <v>178191489.3617022</v>
+        <f>Data!AG28*Data!$B$30</f>
+        <v>712688.82175226579</v>
       </c>
       <c r="AA2" s="5">
-        <f>Z2+Data!$B$17/(2050-2010)</f>
-        <v>178324468.08510646</v>
+        <f>Data!AH28*Data!$B$30</f>
+        <v>713217.52265861037</v>
       </c>
       <c r="AB2" s="5">
-        <f>AA2+Data!$B$17/(2050-2010)</f>
-        <v>178457446.80851072</v>
+        <f>Data!AI28*Data!$B$30</f>
+        <v>713746.22356495459</v>
       </c>
       <c r="AC2" s="5">
-        <f>AB2+Data!$B$17/(2050-2010)</f>
-        <v>178590425.53191498</v>
+        <f>Data!AJ28*Data!$B$30</f>
+        <v>714274.92447129916</v>
       </c>
       <c r="AD2" s="5">
-        <f>AC2+Data!$B$17/(2050-2010)</f>
-        <v>178723404.25531924</v>
+        <f>Data!AK28*Data!$B$30</f>
+        <v>714803.6253776435</v>
       </c>
       <c r="AE2" s="5">
-        <f>AD2+Data!$B$17/(2050-2010)</f>
-        <v>178856382.9787235</v>
+        <f>Data!AL28*Data!$B$30</f>
+        <v>715332.32628398808</v>
       </c>
       <c r="AF2" s="5">
-        <f>AE2+Data!$B$17/(2050-2010)</f>
-        <v>178989361.70212775</v>
+        <f>Data!AM28*Data!$B$30</f>
+        <v>715861.0271903323</v>
       </c>
       <c r="AG2" s="5">
-        <f>AF2+Data!$B$17/(2050-2010)</f>
-        <v>179122340.42553201</v>
+        <f>Data!AN28*Data!$B$30</f>
+        <v>716389.72809667652</v>
       </c>
       <c r="AH2" s="5">
-        <f>AG2+Data!$B$17/(2050-2010)</f>
-        <v>179255319.14893627</v>
-      </c>
-      <c r="AI2" s="5">
-        <f>AH2+Data!$B$17/(2050-2010)</f>
-        <v>179388297.87234053</v>
-      </c>
-      <c r="AJ2" s="5">
-        <f>AI2+Data!$B$17/(2050-2010)</f>
-        <v>179521276.59574479</v>
-      </c>
-      <c r="AK2" s="5">
-        <f>AJ2+Data!$B$17/(2050-2010)</f>
-        <v>179654255.31914905</v>
-      </c>
-      <c r="AL2" s="5">
-        <f>AK2+Data!$B$17/(2050-2010)</f>
-        <v>179787234.04255331</v>
-      </c>
-      <c r="AM2" s="5">
-        <f>AL2+Data!$B$17/(2050-2010)</f>
-        <v>179920212.76595756</v>
-      </c>
-      <c r="AN2" s="5">
-        <f>AM2+Data!$B$17/(2050-2010)</f>
-        <v>180053191.48936182</v>
-      </c>
-      <c r="AO2" s="5">
-        <f>AN2+Data!$B$17/(2050-2010)</f>
-        <v>180186170.21276608</v>
-      </c>
-      <c r="AP2" s="5">
-        <f>AO2+Data!$B$17/(2050-2010)</f>
-        <v>180319148.93617034</v>
+        <f>Data!AO28*Data!$B$30</f>
+        <v>716918.42900302121</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BTC/BAU Transmission Capacity.xlsx
+++ b/InputData/elec/BTC/BAU Transmission Capacity.xlsx
@@ -1062,8 +1062,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1087,6 +1087,9 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1175,6 +1178,23 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1329,12 +1349,15 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CF41087-25CA-4196-807B-5E6838F4BD6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{335BBFDA-13E0-4A71-B34B-2728FC398D4B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
